--- a/console/Elastic-Compute/Virtual-Machine/computeXlsx/components/systemDiskCon.xlsx
+++ b/console/Elastic-Compute/Virtual-Machine/computeXlsx/components/systemDiskCon.xlsx
@@ -5,7 +5,7 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\8月分配\SN205-LF0028-180821-console_Output-译文-ZZH处理\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ZYYT\Desktop\京东云\_JDC反馈\云主机反馈\Virtual-Machine-En_Output-updated 0830\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -54,15 +54,9 @@
     <t>diskImage_notSupport_localDisk</t>
   </si>
   <si>
-    <t>'Image of cloud disk system disk type does not support local disk'</t>
-  </si>
-  <si>
     <t>localImage_notSupport_disk</t>
   </si>
   <si>
-    <t>'Image of local disk system disk type does not support cloud disk'</t>
-  </si>
-  <si>
     <r>
       <rPr>
         <sz val="12"/>
@@ -216,6 +210,14 @@
       </rPr>
       <t>'</t>
     </r>
+  </si>
+  <si>
+    <t>Image of local system disk type does not support local disk'</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Image of local system disk type does not support cloud disk'</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -270,9 +272,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -614,8 +617,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C19" sqref="C19"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -631,7 +634,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>1</v>
@@ -642,7 +645,7 @@
         <v>2</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>3</v>
@@ -653,7 +656,7 @@
         <v>4</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>5</v>
@@ -664,7 +667,7 @@
         <v>6</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>7</v>
@@ -675,7 +678,7 @@
         <v>8</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>9</v>
@@ -686,28 +689,28 @@
         <v>10</v>
       </c>
       <c r="B6" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C6" s="2" t="s">
         <v>19</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>11</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B7" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C7" s="2" t="s">
         <v>20</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>13</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <ignoredErrors>
-    <ignoredError sqref="C1:C7 A1:A7" numberStoredAsText="1"/>
+    <ignoredError sqref="C1:C5 A1:A7" numberStoredAsText="1"/>
   </ignoredErrors>
 </worksheet>
 </file>